--- a/Test Data Driven/AI-Generated/TC10-Navigate Test Design and Verify Home Page.xlsx
+++ b/Test Data Driven/AI-Generated/TC10-Navigate Test Design and Verify Home Page.xlsx
@@ -447,12 +447,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="72" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
-    <col width="39" customWidth="1" min="5" max="5"/>
-    <col width="39" customWidth="1" min="6" max="6"/>
-    <col width="39" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
     <col width="57" customWidth="1" min="9" max="9"/>
     <col width="57" customWidth="1" min="10" max="10"/>
@@ -461,16 +461,16 @@
     <col width="349" customWidth="1" min="13" max="13"/>
     <col width="109" customWidth="1" min="14" max="14"/>
     <col width="349" customWidth="1" min="15" max="15"/>
-    <col width="40" customWidth="1" min="16" max="16"/>
+    <col width="48" customWidth="1" min="16" max="16"/>
     <col width="81" customWidth="1" min="17" max="17"/>
     <col width="81" customWidth="1" min="18" max="18"/>
-    <col width="37" customWidth="1" min="19" max="19"/>
-    <col width="44" customWidth="1" min="20" max="20"/>
-    <col width="34" customWidth="1" min="21" max="21"/>
-    <col width="36" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="60" customWidth="1" min="25" max="25"/>
+    <col width="44" customWidth="1" min="19" max="19"/>
+    <col width="34" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="60" customWidth="1" min="22" max="22"/>
+    <col width="37" customWidth="1" min="23" max="23"/>
+    <col width="34" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
     <col width="82" customWidth="1" min="26" max="26"/>
     <col width="44" customWidth="1" min="27" max="27"/>
   </cols>
@@ -478,37 +478,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>div_dynamicObject_class</t>
+          <t>div_backdropElements_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText</t>
+          <t>div_testCases_internalText</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText_1</t>
+          <t>div_testCases_internalText_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText_2</t>
+          <t>div_testCases_internalText_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText_3</t>
+          <t>div_testCases_internalText_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText_4</t>
+          <t>div_testCases_internalText_4</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText_5</t>
+          <t>div_testCases_internalText_5</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -518,87 +518,87 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>div_testSuiteComponents_internalText</t>
+          <t>div_testSuites_internalText</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>div_testSuiteComponents_internalText_1</t>
+          <t>div_testSuites_internalText_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class</t>
+          <t>input_rowSelectionCheckbox_class</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_1</t>
+          <t>input_rowSelectionCheckbox_class_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_2</t>
+          <t>input_rowSelectionCheckbox_class_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_3</t>
+          <t>input_rowSelectionCheckbox_class_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_4</t>
+          <t>input_rowSelectionCheckbox_class_4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_1</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_2</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_2</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_executions_id</t>
+          <t>link_testSuiteActions_internalRoleLinkName</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_internalRoleLinkName</t>
+          <t>link_testSuiteActions_project_id</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_project_id</t>
+          <t>link_testSuiteActions_team_id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_project_id_1</t>
+          <t>link_testSuiteActions_test_suites_id</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_team_id</t>
+          <t>link_testSuiteDetails_executions_id</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_team_id_1</t>
+          <t>link_testSuiteDetails_project_id</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>link_testSuiteActions_test_suites_id</t>
+          <t>link_testSuiteDetails_team_id</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -705,37 +705,37 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>Test Suite Va...Daños Menores</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1408913</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1389363</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>25934562-test-suite-validacion-vehiculos-con-danos-menores</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Test Suite Va...Daños Menores</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>1408913</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1408913</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>1389363</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1389363</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>25934562-test-suite-validacion-vehiculos-con-danos-menores</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
